--- a/data/trans_dic/P32D_R-Dificultad-trans_dic.xlsx
+++ b/data/trans_dic/P32D_R-Dificultad-trans_dic.xlsx
@@ -506,7 +506,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población que consumió alcohol en las últimas 2 semanas que, en el último año, ha consumido alcohol en atracón más de una vez al mes (Binge drinking) (6/5 o más bebidas estándar para hombre/mujer, respectivamente; 5/4 si mayores de 65 años) en una misma ocasión (entre 4-6h) (tasa de respuesta: 99,36%)</t>
+          <t>Población que consumió alcohol en las últimas 2 semanas que, en el último año, ha consumido alcohol en exceso más de una vez al mes en una misma ocasión (Binge drinking) (tasa de respuesta: 99,36%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -874,7 +874,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población que consumió alcohol en las últimas 2 semanas que, en el último año, ha consumido alcohol en atracón más de una vez al mes (Binge drinking) (6/5 o más bebidas estándar para hombre/mujer, respectivamente; 5/4 si mayores de 65 años) en una misma ocasión (entre 4-6h) (tasa de respuesta: 99,36%)</t>
+          <t>Población que consumió alcohol en las últimas 2 semanas que, en el último año, ha consumido alcohol en exceso más de una vez al mes en una misma ocasión (Binge drinking) (tasa de respuesta: 99,36%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>

--- a/data/trans_dic/P32D_R-Dificultad-trans_dic.xlsx
+++ b/data/trans_dic/P32D_R-Dificultad-trans_dic.xlsx
@@ -564,10 +564,10 @@
         </is>
       </c>
       <c r="C4" s="5" t="n">
-        <v>0.1782654237710176</v>
+        <v>0.1782654237710175</v>
       </c>
       <c r="D4" s="5" t="n">
-        <v>0.03969125583774113</v>
+        <v>0.03969125583774112</v>
       </c>
       <c r="E4" s="5" t="n">
         <v>0.1295788544455149</v>
@@ -581,13 +581,13 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.1265737108125427</v>
+        <v>0.1262799262491469</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.01441479376731983</v>
+        <v>0.01447405769584863</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.09343414188760762</v>
+        <v>0.09440705523336861</v>
       </c>
     </row>
     <row r="6">
@@ -598,13 +598,13 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.2390877809740225</v>
+        <v>0.2439529851172198</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.1057466172051466</v>
+        <v>0.1019819479488062</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.173858461721686</v>
+        <v>0.1725897661594867</v>
       </c>
     </row>
     <row r="7">
@@ -636,13 +636,13 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.06026904642338595</v>
+        <v>0.05960690288789514</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.02970428838134669</v>
+        <v>0.02900834991580245</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.05659013822619213</v>
+        <v>0.05751954622508387</v>
       </c>
     </row>
     <row r="9">
@@ -653,13 +653,13 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.1189022330676745</v>
+        <v>0.1169448554810932</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.08400671095956734</v>
+        <v>0.08166573390948359</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.1002645476231375</v>
+        <v>0.1006791458783058</v>
       </c>
     </row>
     <row r="10">
@@ -680,7 +680,7 @@
         <v>0.06863207429507788</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>0.06355533300096533</v>
+        <v>0.06355533300096534</v>
       </c>
     </row>
     <row r="11">
@@ -691,13 +691,13 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.04136287431749735</v>
+        <v>0.04013075020209716</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.04290479476589811</v>
+        <v>0.04042909217272651</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.04730364730138988</v>
+        <v>0.04640166998544733</v>
       </c>
     </row>
     <row r="12">
@@ -708,13 +708,13 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.0912693467665531</v>
+        <v>0.08917741724966474</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.1163460611614405</v>
+        <v>0.1062162944935003</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.08483215719948803</v>
+        <v>0.08395269778780493</v>
       </c>
     </row>
     <row r="13">
@@ -732,7 +732,7 @@
         <v>0.1096858008344493</v>
       </c>
       <c r="D13" s="5" t="n">
-        <v>0.09993542236681946</v>
+        <v>0.09993542236681947</v>
       </c>
       <c r="E13" s="5" t="n">
         <v>0.1061864203846354</v>
@@ -746,13 +746,13 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.08181043824882317</v>
+        <v>0.08156700374851374</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.06647300127521792</v>
+        <v>0.06660017895513799</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.08225777513869768</v>
+        <v>0.08294818848127068</v>
       </c>
     </row>
     <row r="15">
@@ -763,13 +763,13 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.1473441808918404</v>
+        <v>0.1505486669594727</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.1481486474673119</v>
+        <v>0.1461035489330784</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.1364794706338948</v>
+        <v>0.1365695421986421</v>
       </c>
     </row>
     <row r="16">
@@ -784,10 +784,10 @@
         </is>
       </c>
       <c r="C16" s="5" t="n">
-        <v>0.09739674420392172</v>
+        <v>0.09739674420392173</v>
       </c>
       <c r="D16" s="5" t="n">
-        <v>0.07000319306720189</v>
+        <v>0.07000319306720187</v>
       </c>
       <c r="E16" s="5" t="n">
         <v>0.08778166777307185</v>
@@ -801,13 +801,13 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.0811854754134093</v>
+        <v>0.08204112022219648</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.0541948760736076</v>
+        <v>0.05383566890158144</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.07644860225319539</v>
+        <v>0.07542252726023414</v>
       </c>
     </row>
     <row r="18">
@@ -818,13 +818,13 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.1167302483214969</v>
+        <v>0.1150368302719702</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.08827690115648289</v>
+        <v>0.08968358216441989</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.1020373799461809</v>
+        <v>0.1001365675364725</v>
       </c>
     </row>
     <row r="19">
@@ -966,13 +966,13 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>26849</v>
+        <v>26786</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>1656</v>
+        <v>1663</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>30554</v>
+        <v>30872</v>
       </c>
     </row>
     <row r="7">
@@ -983,13 +983,13 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>50715</v>
+        <v>51747</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>12149</v>
+        <v>11717</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>56854</v>
+        <v>56439</v>
       </c>
     </row>
     <row r="8">
@@ -1038,13 +1038,13 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>27517</v>
+        <v>27215</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>7258</v>
+        <v>7088</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>39665</v>
+        <v>40316</v>
       </c>
     </row>
     <row r="11">
@@ -1055,13 +1055,13 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>54287</v>
+        <v>53394</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>20526</v>
+        <v>19954</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>70276</v>
+        <v>70567</v>
       </c>
     </row>
     <row r="12">
@@ -1110,13 +1110,13 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>20895</v>
+        <v>20273</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>11431</v>
+        <v>10772</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>36500</v>
+        <v>35804</v>
       </c>
     </row>
     <row r="15">
@@ -1127,13 +1127,13 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>46106</v>
+        <v>45050</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>30998</v>
+        <v>28299</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>65457</v>
+        <v>64778</v>
       </c>
     </row>
     <row r="16">
@@ -1182,13 +1182,13 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>39606</v>
+        <v>39488</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>18015</v>
+        <v>18050</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>62116</v>
+        <v>62637</v>
       </c>
     </row>
     <row r="19">
@@ -1199,13 +1199,13 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>71333</v>
+        <v>72884</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>40151</v>
+        <v>39597</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>103061</v>
+        <v>103129</v>
       </c>
     </row>
     <row r="20">
@@ -1254,13 +1254,13 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>134604</v>
+        <v>136023</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>48596</v>
+        <v>48273</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>195300</v>
+        <v>192679</v>
       </c>
     </row>
     <row r="23">
@@ -1271,13 +1271,13 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>193537</v>
+        <v>190729</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>79156</v>
+        <v>80418</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>260671</v>
+        <v>255815</v>
       </c>
     </row>
     <row r="24">
